--- a/Ecopulpers/Baseline Results/baseline.xlsx
+++ b/Ecopulpers/Baseline Results/baseline.xlsx
@@ -100,7 +100,7 @@
     <t>kha</t>
   </si>
   <si>
-    <t>intervention</t>
+    <t>Ecopulpers</t>
   </si>
   <si>
     <t>baseline</t>
@@ -649,7 +649,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="O4">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="P4">
         <v>0.2802074924111366</v>
